--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\OneDrive\Bureau\restos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\home\pierre\routage-du-coeur\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73989338-BB76-4B01-9758-6C0837AE7603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E367D7-8C67-46DE-A4A8-B50D712C3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Nom</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Fourgon</t>
-  </si>
-  <si>
-    <t>Nombre</t>
   </si>
   <si>
     <t>Capacité (kg)</t>
@@ -387,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,7 +398,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,88 +414,209 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>19000</v>
       </c>
       <c r="C2">
-        <v>19000</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="C3">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>900</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>900</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>900</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>1200</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1200</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -71,7 +71,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -455,12 +455,12 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="C2" s="4">
         <v>12</v>
@@ -472,12 +472,12 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
@@ -489,12 +489,12 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
@@ -506,12 +506,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -523,12 +523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -540,12 +540,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
@@ -557,12 +557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -574,12 +574,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -591,12 +591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
@@ -608,12 +608,12 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -625,12 +625,12 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -642,12 +642,12 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>

--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -463,10 +463,10 @@
         <v>9000</v>
       </c>
       <c r="C2" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -500,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>

--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Nom</t>
   </si>
@@ -28,7 +28,16 @@
     <t>Consommation (L/100km)</t>
   </si>
   <si>
-    <t>Frais</t>
+    <t>Réfrigérant</t>
+  </si>
+  <si>
+    <t>Frais Contrôle Technique (€/an)</t>
+  </si>
+  <si>
+    <t>Frais Assurance (€/mois)</t>
+  </si>
+  <si>
+    <t>Frais Entretien (€/km)</t>
   </si>
   <si>
     <t>Poids Lourd</t>
@@ -103,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -116,6 +125,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -425,17 +437,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -454,10 +469,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>9000</v>
@@ -469,12 +493,21 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>120</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>4000</v>
@@ -486,12 +519,21 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>1400</v>
@@ -503,12 +545,21 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1400</v>
@@ -520,12 +571,21 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>1400</v>
@@ -537,12 +597,21 @@
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>1400</v>
@@ -554,12 +623,21 @@
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>80</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>1400</v>
@@ -571,12 +649,21 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>80</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>1400</v>
@@ -588,12 +675,21 @@
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>1400</v>
@@ -605,12 +701,21 @@
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>80</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>1600</v>
@@ -622,12 +727,21 @@
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>1600</v>
@@ -639,12 +753,21 @@
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>1600</v>
@@ -656,7 +779,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -34,7 +34,7 @@
     <t>Frais Contrôle Technique (€/an)</t>
   </si>
   <si>
-    <t>Frais Assurance (€/mois)</t>
+    <t>Frais Assurance (€/an)</t>
   </si>
   <si>
     <t>Frais Entretien (€/km)</t>
@@ -112,12 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -126,13 +129,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -443,14 +449,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -475,320 +481,320 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>9000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <v>120</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="5">
+        <v>150</v>
+      </c>
+      <c r="G2" s="5">
+        <v>750</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.0384</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
         <v>15</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
-        <v>100</v>
-      </c>
-      <c r="G3" s="4">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.18</v>
+      <c r="F3" s="5">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5">
+        <v>750</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.0384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1400</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <v>80</v>
-      </c>
-      <c r="G4" s="4">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.09</v>
+      <c r="D4" s="5">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5">
+        <v>500</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>1400</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.09</v>
+      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5">
+        <v>500</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1400</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4">
-        <v>80</v>
-      </c>
-      <c r="G6" s="4">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.09</v>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>80</v>
+      </c>
+      <c r="G6" s="5">
+        <v>500</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>1400</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4">
-        <v>80</v>
-      </c>
-      <c r="G7" s="4">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.09</v>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5">
+        <v>500</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1400</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4">
-        <v>80</v>
-      </c>
-      <c r="G8" s="4">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.09</v>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5">
+        <v>500</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>1400</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>80</v>
-      </c>
-      <c r="G9" s="4">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.09</v>
+      <c r="D9" s="5">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>80</v>
+      </c>
+      <c r="G9" s="5">
+        <v>500</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1400</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4">
-        <v>80</v>
-      </c>
-      <c r="G10" s="4">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.09</v>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5">
+        <v>500</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>1600</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4">
-        <v>80</v>
-      </c>
-      <c r="G11" s="4">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.09</v>
+      <c r="F11" s="5">
+        <v>80</v>
+      </c>
+      <c r="G11" s="5">
+        <v>500</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>1600</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="4">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
-        <v>80</v>
-      </c>
-      <c r="G12" s="4">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.09</v>
+      <c r="F12" s="5">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5">
+        <v>500</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.0186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>1600</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4">
-        <v>80</v>
-      </c>
-      <c r="G13" s="4">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.09</v>
+      <c r="F13" s="5">
+        <v>80</v>
+      </c>
+      <c r="G13" s="5">
+        <v>500</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.0186</v>
       </c>
     </row>
   </sheetData>

--- a/data/vehicules.xlsx
+++ b/data/vehicules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Nom</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 900,00
+</t>
   </si>
   <si>
     <t>Petit Poids Lourd</t>
@@ -484,11 +488,11 @@
     <col min="3" max="3" style="8" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="29.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="21.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="24.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -534,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -546,14 +550,16 @@
         <v>750</v>
       </c>
       <c r="H2" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>3000</v>
@@ -574,14 +580,16 @@
         <v>750</v>
       </c>
       <c r="H3" s="6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6">
+        <v>8450</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>1000</v>
@@ -593,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>80</v>
@@ -605,7 +613,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="6">
         <v>2250</v>
@@ -613,7 +621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>1020</v>
@@ -625,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>80</v>
@@ -637,7 +645,7 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6">
         <v>1200</v>
@@ -645,7 +653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>1150</v>
@@ -657,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <v>80</v>
@@ -669,13 +677,13 @@
         <v>0.2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5">
         <v>731</v>
@@ -687,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5">
         <v>80</v>
@@ -699,13 +707,13 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>1139</v>
@@ -717,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5">
         <v>80</v>
@@ -729,7 +737,7 @@
         <v>0.2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="6">
         <v>250</v>
@@ -737,7 +745,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5">
         <v>865</v>
@@ -749,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5">
         <v>80</v>
@@ -761,7 +769,7 @@
         <v>0.2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="6">
         <v>255</v>
@@ -769,7 +777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>933</v>
@@ -781,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5">
         <v>80</v>
@@ -793,7 +801,7 @@
         <v>0.2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>687</v>
@@ -801,7 +809,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5">
         <v>1171</v>
@@ -825,13 +833,13 @@
         <v>0.2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>1200</v>
@@ -859,7 +867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>1200</v>
